--- a/freitextanalyse.xlsx
+++ b/freitextanalyse.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael (limited)\Documents\GitHub\Code_UKSH_Husten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver1.uni-luebeck.de\ifa_homes\raphaelkroes\Documents\GitHub\Code_UKSH_Husten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7EDC00-A84D-4A09-99A6-5F0D02238CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,18 +108,9 @@
     <t>Procalcitonin (PCT)</t>
   </si>
   <si>
-    <t>freitext</t>
-  </si>
-  <si>
     <t>something</t>
   </si>
   <si>
-    <t>kl_Blutbild</t>
-  </si>
-  <si>
-    <t>gr_Blutbild</t>
-  </si>
-  <si>
     <t>ery</t>
   </si>
   <si>
@@ -128,12 +118,21 @@
   </si>
   <si>
     <t>procalcitonin</t>
+  </si>
+  <si>
+    <t>text_description</t>
+  </si>
+  <si>
+    <t>blood_normal</t>
+  </si>
+  <si>
+    <t>blood_large_test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,9 +233,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,7 +305,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,49 +478,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -543,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -554,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -565,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -576,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -587,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -598,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -609,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -620,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -631,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -642,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -653,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -664,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -675,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -686,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -697,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -708,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -719,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -730,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -741,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -752,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -763,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -774,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -785,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -796,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -807,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -818,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -829,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>

--- a/freitextanalyse.xlsx
+++ b/freitextanalyse.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver1.uni-luebeck.de\ifa_homes\raphaelkroes\Documents\GitHub\Code_UKSH_Husten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael (limited)\Documents\GitHub\Code_UKSH_Husten\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0296E0C-6F83-44F7-BB71-3A1EEC7A168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Blutbild</t>
   </si>
@@ -72,31 +73,16 @@
     <t>Erythrozyten iQ200</t>
   </si>
   <si>
-    <t>Leuko Urin</t>
-  </si>
-  <si>
     <t>Leukozyten</t>
   </si>
   <si>
     <t>LEUKOZYTEN</t>
   </si>
   <si>
-    <t>Leukozyten i. U.</t>
-  </si>
-  <si>
     <t>Leukozyten i.B.</t>
   </si>
   <si>
-    <t>Leukozyten im Urin</t>
-  </si>
-  <si>
     <t>Leukozyten iQ200</t>
-  </si>
-  <si>
-    <t>LEUKOZYTEN STAT</t>
-  </si>
-  <si>
-    <t>LEUKOZYTEN U</t>
   </si>
   <si>
     <t>Procalcitonin</t>
@@ -132,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,9 +219,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,16 +464,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -496,28 +482,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,7 +744,7 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1</v>
       </c>
     </row>
@@ -769,7 +755,7 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
@@ -780,62 +766,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="H30">
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
